--- a/enterprice_task_list.xlsx
+++ b/enterprice_task_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>projects tab</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>add photo property of user</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -113,12 +116,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,11 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,21 +428,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -460,7 +470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -474,7 +484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -488,7 +498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -499,32 +509,38 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>

--- a/enterprice_task_list.xlsx
+++ b/enterprice_task_list.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>projects tab</t>
   </si>
@@ -56,9 +59,6 @@
     <t>view profile -&gt; view edit customer (modal?)</t>
   </si>
   <si>
-    <t>userView</t>
-  </si>
-  <si>
     <t>filter projects by user</t>
   </si>
   <si>
@@ -75,18 +75,12 @@
   </si>
   <si>
     <t>change comments type / user+text</t>
-  </si>
-  <si>
-    <t>Evgeni</t>
   </si>
   <si>
     <t>view profile -&gt; view edit user
 manage rates</t>
   </si>
   <si>
-    <t>Evegni</t>
-  </si>
-  <si>
     <t>Lora</t>
   </si>
   <si>
@@ -100,14 +94,71 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Enter actual expenses</t>
+  </si>
+  <si>
+    <t>view expenses</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>VIEWS</t>
+  </si>
+  <si>
+    <t>Add tab for all projects in project list</t>
+  </si>
+  <si>
+    <t>Add profession at user registration</t>
+  </si>
+  <si>
+    <t>register view</t>
+  </si>
+  <si>
+    <t>set breadcrumb links</t>
+  </si>
+  <si>
+    <t>Statistics regarding user participation in project/task (No of commits/hour worked)</t>
+  </si>
+  <si>
+    <t>task details view/ format media body</t>
+  </si>
+  <si>
+    <t>project list view</t>
+  </si>
+  <si>
+    <t>teams view</t>
+  </si>
+  <si>
+    <t>probably teams view should be inclused in users list view??</t>
+  </si>
+  <si>
+    <t>Evegni/Lora</t>
+  </si>
+  <si>
+    <t>Evgeni/Lora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,12 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,127 +480,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/enterprice_task_list.xlsx
+++ b/enterprice_task_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>projects tab</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Evgeni/Lora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user authentication </t>
+  </si>
+  <si>
+    <t>ordinary users cannot acces edit views</t>
+  </si>
+  <si>
+    <t>Evgeni</t>
   </si>
 </sst>
 </file>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,6 +686,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/enterprice_task_list.xlsx
+++ b/enterprice_task_list.xlsx
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/enterprice_task_list.xlsx
+++ b/enterprice_task_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>projects tab</t>
   </si>
@@ -492,7 +492,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,15 +621,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -640,7 +643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>

--- a/enterprice_task_list.xlsx
+++ b/enterprice_task_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>projects tab</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Evgeni</t>
+  </si>
+  <si>
+    <t>search in customer list view</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,13 +211,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,12 +623,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -643,19 +656,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E13" t="s">
@@ -670,12 +686,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,15 +708,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
